--- a/biology/Botanique/Tamaricaceae/Tamaricaceae.xlsx
+++ b/biology/Botanique/Tamaricaceae/Tamaricaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Tamaricaceae (Tamaricacées) regroupe des plantes dicotylédones ; elle comprend 120 espèces réparties en 3-5 genres.
 Ce sont des petits arbres ou des arbustes ou le plus souvent des plantes herbacées, à petites feuilles simples écailleuses, à petites fleurs régulières en épis. On les rencontre dans les zones arides ou sablonneuses des régions tempérées à subtropicales, en particulier les déserts, steppes et rivages d'Europe et d'Afrique.
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Tamarix du latin tamarice, qui est le nom traditionnel de ces arbrisseaux, et dont l'étymologie est inconnue[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Tamarix du latin tamarice, qui est le nom traditionnel de ces arbrisseaux, et dont l'étymologie est inconnue.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Caryophyllales.
 </t>
@@ -577,24 +593,26 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 août 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 août 2015) :
 genre Myricaria
 genre Reaumuria
 genre Tamarix
-Selon DELTA Angio           (14 août 2015)[3] :
+Selon DELTA Angio           (14 août 2015) :
 genre Hololachna
 genre Myricaria
 genre Reaumuria
 genre Tamarix
-Selon Angiosperm Phylogeny Website                        (14 août 2015)[4] :
+Selon Angiosperm Phylogeny Website                        (14 août 2015) :
 genre Hololachna
 genre Myricaria
 genre Myrtama
 genre Reaumuria
 genre Tamarix
-Selon ITIS      (14 août 2015)[5] :
+Selon ITIS      (14 août 2015) :
 genre Tamarix  L.</t>
         </is>
       </c>
